--- a/data/long_razon/P18_3-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_3-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>249,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-45,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>103,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 513,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,2; 999,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-78,03; 8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 87,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 154,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 44,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 140,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,15; 239,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 9,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 51,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 131,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 25,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 18,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,11; 173,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 37,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 19,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,88; 126,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 17,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-32,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 101,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 106,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 59,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,85; -1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 103,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 63,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 21,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 83,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 46,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 77,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 123,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,83; 113,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 29,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,07; 97,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 9,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_3-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_3-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.2521846836643693</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.888458290184883</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4660077374587655</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.906363576917846</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0.0639436009336338</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2987601559559103</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.003419042075422276</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.08195023717601999</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>0.1231743235831328</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.9990250226625232</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2202923137496715</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.9506635031919012</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6857387413883694</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.3774395539080131</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7632867547832188</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.242699073546288</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.4994366001471902</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3288913662608826</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3115873955546943</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3669924324178861</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.37444608608841</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.1736156207996565</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4908600654917929</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.1573874967900761</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>3.513630243835224</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.34082472330529</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.03473951553513438</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.98869983231883</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>1.224840757503162</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.43610750172836</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4963655002161961</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.055985449051338</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>1.160277067433719</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.664646691827089</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.09992808615562439</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>2.620978815783456</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1752112248726325</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8612792731740931</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2073365372389085</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8857592837621915</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.4031896526424207</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.197467339340314</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.01779541683547152</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.09670675508641888</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>-0.3030594983480046</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.037229156706222</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.1104766645073077</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.4033079978160994</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5636458104481962</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1852894036268638</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4730459794050091</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.1296532918268361</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.6342248147156968</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.5164266810029546</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2706273146228995</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1930407747926826</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.520499351078941</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.5045761041364806</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.3104401960326621</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.06199102568451046</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.3773098523425941</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.072688830565692</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.192834423448337</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.235464209426849</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>-0.07372547723211424</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.187753437095633</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3072576852679829</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.5427774417947063</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>-0.02357387720595562</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.723313801962018</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.1360394923225907</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.8994264306527846</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4159248422114577</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6673167270821329</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03983471492969744</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1346598949667958</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.360074588040711</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5770472162625579</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2410745689492625</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2000710657131681</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.3805471144252562</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.6157152485826295</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.155866079809665</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.1724495768182222</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.7604508960117208</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1510680284518163</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3129327121265716</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2969296680503044</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.6168720972645143</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.04761654000990895</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.07152368561682063</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1439008041888943</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.6006214232809357</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.1212895053886816</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.09835039833637077</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1243414430611298</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.5024850833820731</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.389614532087524</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6347842036410217</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8889017022808142</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.04008917189403371</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.399524139059867</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.7307931535612839</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.7071320634410101</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.002477984622342394</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.390929613026848</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.51264657166914</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.5347941714288833</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.2055521014980355</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.008485373665202</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.2179639241426068</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.9762078888979221</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.3215283908200081</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7869105689177852</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.05992948566140306</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1237677456876022</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>-0.2751625396561055</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.8810458107073746</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.07037319695828757</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.4370155280622369</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5091534028300391</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.423478198296431</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.42603760566143</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3913650288603296</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.4975184713838376</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.3823691476860042</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1184759935084192</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.09695770424937984</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.4485581317230227</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.5210284425814856</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2178228591889221</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.1806512765627926</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.2004026178603832</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.993668523225027</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.03230109322363561</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.947113804928216</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>-0.108094269215406</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.321749226744772</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2694266880667963</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3873941086876349</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>-0.09932236490858481</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.313977782141287</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.08643786707522784</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.8062661591791039</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
